--- a/data/trans_orig/P25C_R_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P25C_R_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>14130</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8058</v>
+        <v>8577</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>22673</v>
+        <v>21132</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08022870683264902</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04575554571514939</v>
+        <v>0.04869970214846689</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1287361167567337</v>
+        <v>0.1199863570133825</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -762,19 +762,19 @@
         <v>1924</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5298</v>
+        <v>4718</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04089042119478373</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01247184780790563</v>
+        <v>0.01256078916781882</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1125963035554395</v>
+        <v>0.1002698087266796</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>21</v>
@@ -783,19 +783,19 @@
         <v>16054</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>10506</v>
+        <v>10363</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>24399</v>
+        <v>24627</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.0719349248670256</v>
+        <v>0.07193492486702562</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04707397077403471</v>
+        <v>0.04643406232204939</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.10932941482559</v>
+        <v>0.1103518924156282</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>161989</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>153446</v>
+        <v>154987</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>168061</v>
+        <v>167542</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.919771293167351</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8712638832432668</v>
+        <v>0.8800136429866177</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9542444542848506</v>
+        <v>0.951300297851533</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>71</v>
@@ -833,19 +833,19 @@
         <v>45128</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>41754</v>
+        <v>42334</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>46465</v>
+        <v>46461</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9591095788052163</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8874036964445606</v>
+        <v>0.8997301912733204</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9875281521920944</v>
+        <v>0.9874392108321811</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>287</v>
@@ -854,19 +854,19 @@
         <v>207117</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>198772</v>
+        <v>198544</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>212665</v>
+        <v>212808</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9280650751329744</v>
+        <v>0.9280650751329746</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8906705851744098</v>
+        <v>0.8896481075843719</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9529260292259651</v>
+        <v>0.9535659376779506</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>26924</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>18622</v>
+        <v>18147</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>38424</v>
+        <v>38415</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.08097825740092192</v>
+        <v>0.0809782574009219</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05600897403815541</v>
+        <v>0.05457763766160802</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1155641783203482</v>
+        <v>0.1155370797720637</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>29</v>
@@ -979,19 +979,19 @@
         <v>19071</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>13236</v>
+        <v>13283</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>26753</v>
+        <v>27248</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08585577640598786</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05958974005439734</v>
+        <v>0.05980235130971521</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1204418823103297</v>
+        <v>0.1226687727485854</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>56</v>
@@ -1000,19 +1000,19 @@
         <v>45995</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>35378</v>
+        <v>34904</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>59466</v>
+        <v>59156</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.08293170936896903</v>
+        <v>0.08293170936896904</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06378827019376428</v>
+        <v>0.06293474227637773</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1072208602897095</v>
+        <v>0.1066613786272126</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>305566</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>294066</v>
+        <v>294075</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>313868</v>
+        <v>314343</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9190217425990782</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8844358216796517</v>
+        <v>0.8844629202279363</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9439910259618444</v>
+        <v>0.9454223623383919</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>280</v>
@@ -1050,19 +1050,19 @@
         <v>203052</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>195370</v>
+        <v>194875</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>208887</v>
+        <v>208840</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9141442235940123</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8795581176896703</v>
+        <v>0.8773312272514145</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9404102599456026</v>
+        <v>0.9401976486902848</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>612</v>
@@ -1071,19 +1071,19 @@
         <v>508618</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>495147</v>
+        <v>495457</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>519235</v>
+        <v>519709</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9170682906310308</v>
+        <v>0.9170682906310309</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8927791397102901</v>
+        <v>0.8933386213727869</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9362117298062356</v>
+        <v>0.9370652577236217</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>7857</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3447</v>
+        <v>3677</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13397</v>
+        <v>14470</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05284285848637264</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02318206254948343</v>
+        <v>0.0247297421676245</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09009918359825708</v>
+        <v>0.09731549593910831</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>14</v>
@@ -1196,19 +1196,19 @@
         <v>9605</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5333</v>
+        <v>5402</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>15010</v>
+        <v>15414</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1004770926305288</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0557881589474985</v>
+        <v>0.05651106756200842</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1570244989585028</v>
+        <v>0.1612481192365896</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>23</v>
@@ -1217,19 +1217,19 @@
         <v>17462</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>11446</v>
+        <v>11075</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>25607</v>
+        <v>25942</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.07148286746428771</v>
+        <v>0.07148286746428772</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04685572480522202</v>
+        <v>0.04533752023226417</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1048287711518563</v>
+        <v>0.1061977166077538</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>140830</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>135290</v>
+        <v>134217</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>145240</v>
+        <v>145010</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9471571415136275</v>
+        <v>0.9471571415136273</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9099008164017428</v>
+        <v>0.9026845040608916</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9768179374505165</v>
+        <v>0.9752702578323756</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>126</v>
@@ -1267,19 +1267,19 @@
         <v>85984</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>80579</v>
+        <v>80175</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>90256</v>
+        <v>90187</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8995229073694712</v>
+        <v>0.8995229073694713</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8429755010414969</v>
+        <v>0.8387518807634105</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9442118410525017</v>
+        <v>0.9434889324379916</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>280</v>
@@ -1288,19 +1288,19 @@
         <v>226815</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>218670</v>
+        <v>218335</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>232831</v>
+        <v>233202</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9285171325357122</v>
+        <v>0.9285171325357123</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8951712288481437</v>
+        <v>0.8938022833922461</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9531442751947781</v>
+        <v>0.954662479767736</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>48911</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>37856</v>
+        <v>36748</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>63662</v>
+        <v>61711</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.07441289218463309</v>
+        <v>0.07441289218463308</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05759277298198884</v>
+        <v>0.05590809734101621</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09685471181310683</v>
+        <v>0.09388571409864914</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>46</v>
@@ -1413,19 +1413,19 @@
         <v>30599</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>22802</v>
+        <v>22846</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>39903</v>
+        <v>41207</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08388723617347173</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06251279153949697</v>
+        <v>0.06263355312475505</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1093933727319407</v>
+        <v>0.1129680397569986</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>100</v>
@@ -1434,19 +1434,19 @@
         <v>79510</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>65659</v>
+        <v>65890</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>95133</v>
+        <v>96007</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07779419836020846</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06424224313466773</v>
+        <v>0.06446763696052889</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09307949959846641</v>
+        <v>0.09393486342013074</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>608386</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>593635</v>
+        <v>595586</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>619441</v>
+        <v>620549</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.925587107815367</v>
+        <v>0.9255871078153668</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.903145288186893</v>
+        <v>0.9061142859013508</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9424072270180109</v>
+        <v>0.9440919026589838</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>477</v>
@@ -1484,19 +1484,19 @@
         <v>334165</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>324861</v>
+        <v>323557</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>341962</v>
+        <v>341918</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9161127638265284</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8906066272680593</v>
+        <v>0.8870319602430015</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.937487208460503</v>
+        <v>0.9373664468752448</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1179</v>
@@ -1505,19 +1505,19 @@
         <v>942551</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>926928</v>
+        <v>926054</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>956402</v>
+        <v>956171</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9222058016397915</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9069205004015338</v>
+        <v>0.9060651365798694</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9357577568653324</v>
+        <v>0.9355323630394711</v>
       </c>
     </row>
     <row r="15">
